--- a/assets/disciplinas/LOQ4223.xlsx
+++ b/assets/disciplinas/LOQ4223.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="39">
   <si>
     <t>Ementa atual:</t>
   </si>
@@ -70,7 +70,7 @@
     <t>Objetivos:</t>
   </si>
   <si>
-    <t>Fornecer para o aluno habilidades básicas no desenvolvimento de modelos, experimentação, interpretação e análise dos resultados fornecidos através de sessões de simulação, bem como capacitá-lo na escolha da ferramenta adequada para determinadas classes de problemas.</t>
+    <t>5840917 - Fabrício Maciel Gomes</t>
   </si>
   <si>
     <t>Objectives:</t>
@@ -82,13 +82,10 @@
     <t>Docentes responsáveis:</t>
   </si>
   <si>
-    <t>5840917 - Fabrício Maciel Gomes</t>
-  </si>
-  <si>
     <t>Programa resumido:</t>
   </si>
   <si>
-    <t>Teoria dos Sistemas, Processo de Modelagem de Sistemas, Modelagem para Simulação, Linguagens de Simulação, Aspectos Estatísticos da Simulação de Sistemas, Validação de Modelos.</t>
+    <t>Semestral</t>
   </si>
   <si>
     <t>Short syllabus:</t>
@@ -100,9 +97,6 @@
     <t>Programa:</t>
   </si>
   <si>
-    <t>1. Teoria dos Sistemas. 1.1. Conceitos Básicos sobre Teoria dos Sistemas;1.2. Abordagem Sistêmica; 1.3. Classificação dos Sistemas; 1.4. Ciclo de Vida dos Sistemas; 2. Processo de Modelagem de Sistemas. 2.1. Modelo Formal; 2.2. Modelo Computacional; 2.3. Teoria dos Modelos; 3. Modelagem para Simulação 3.1. Modelagem Discreta; 3.2. Modelagem Orientada a Eventos; 4. Linguagens de Simulação. 5. Aspectos Estatísticos da Simulação de Sistemas. 5.1. Geradores de Números Aleatórios; 5.2. Geração de Variáveis Aleatórias; 5.3. Inferência Estatística; 5.4. Problemas Estatísticos Relacionados com Simulação; 6. Validação de Modelos.</t>
-  </si>
-  <si>
     <t>Syllabus:</t>
   </si>
   <si>
@@ -115,25 +109,22 @@
     <t>Método:</t>
   </si>
   <si>
+    <t>Critério:</t>
+  </si>
+  <si>
     <t>NF=A avaliação será composta por provas, listas, projetos, seminários e outras formas que farão a composição das notas, sendo estipulada a média final a somatória destas notas (N), com no mínimo duas avaliações, sendo: (N1+...+Nn)/n.</t>
   </si>
   <si>
-    <t>Critério:</t>
+    <t>Norma de recuperação:</t>
   </si>
   <si>
     <t>NF≥ 5,0.</t>
   </si>
   <si>
-    <t>Norma de recuperação:</t>
+    <t>Bibliografia:</t>
   </si>
   <si>
     <t>(NF+RC)/2 ≥ 5,0, onde RC é uma prova de recuperação a ser aplicada.</t>
-  </si>
-  <si>
-    <t>Bibliografia:</t>
-  </si>
-  <si>
-    <t>1. BANKS, J., CARSON, J.S., “Discrete-Event System Simulation.”, Printice Hall, 2000.2. CHWIF, L., MEDINA, A.C. e col. “Introdução ao Simul8: um guia prático”, Livro Eletrônico, 1ª ed., 2015.3. Fishman, G.S. “Discrete-Event Simulation: Modeling, Programming, and Analysis”, Springer-Verlag, 2001.</t>
   </si>
   <si>
     <t>Requisitos:</t>
@@ -496,7 +487,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -627,34 +618,37 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" ht="60" customHeight="1">
+      <c r="A13" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="B13" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="60" customHeight="1">
       <c r="A14" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="60" customHeight="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="120" customHeight="1">
       <c r="A15" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="120" customHeight="1">
@@ -668,77 +662,66 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="120" customHeight="1">
+    <row r="17" spans="1:3">
       <c r="A17" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B17" s="2" t="s">
+    </row>
+    <row r="18" spans="1:3" ht="60" customHeight="1">
+      <c r="A18" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C17" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="1" t="s">
-        <v>31</v>
+      <c r="B18" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="60" customHeight="1">
       <c r="A19" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>33</v>
-      </c>
       <c r="C19" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="60" customHeight="1">
       <c r="A20" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="C20" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="120" customHeight="1">
+      <c r="A21" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C20" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="60" customHeight="1">
-      <c r="A21" s="1" t="s">
+      <c r="B21" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="C21" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C21" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="120" customHeight="1">
-      <c r="A22" s="1" t="s">
+    </row>
+    <row r="23" spans="1:3" ht="30" customHeight="1">
+      <c r="B23" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B22" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="30" customHeight="1">
-      <c r="B24" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>41</v>
+      <c r="C23" s="3" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/assets/disciplinas/LOQ4223.xlsx
+++ b/assets/disciplinas/LOQ4223.xlsx
@@ -70,7 +70,7 @@
     <t>Objetivos:</t>
   </si>
   <si>
-    <t>5840917 - Fabrício Maciel Gomes</t>
+    <t>5840917 - Fabricio Maciel Gomes</t>
   </si>
   <si>
     <t>Objectives:</t>

--- a/assets/disciplinas/LOQ4223.xlsx
+++ b/assets/disciplinas/LOQ4223.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="42">
   <si>
     <t>Ementa atual:</t>
   </si>
@@ -70,22 +70,25 @@
     <t>Objetivos:</t>
   </si>
   <si>
+    <t>Fornecer para o aluno habilidades básicas no desenvolvimento de modelos, experimentação, interpretação e análise dos resultados fornecidos através de sessões de simulação, bem como capacitá-lo na escolha da ferramenta adequada para determinadas classes de problemas.</t>
+  </si>
+  <si>
+    <t>Objectives:</t>
+  </si>
+  <si>
+    <t>Provide the student with basic skills in developing models, experimenting, interpreting and analyzing the results provided through simulation sessions, as well as empowering him in choosing the right tool for certain classes of problems.</t>
+  </si>
+  <si>
+    <t>Docentes responsáveis:</t>
+  </si>
+  <si>
     <t>5840917 - Fabricio Maciel Gomes</t>
   </si>
   <si>
-    <t>Objectives:</t>
-  </si>
-  <si>
-    <t>Provide the student with basic skills in developing models, experimenting, interpreting and analyzing the results provided through simulation sessions, as well as empowering him in choosing the right tool for certain classes of problems.</t>
-  </si>
-  <si>
-    <t>Docentes responsáveis:</t>
-  </si>
-  <si>
     <t>Programa resumido:</t>
   </si>
   <si>
-    <t>Semestral</t>
+    <t>Teoria dos Sistemas, Processo de Modelagem de Sistemas, Modelagem para Simulação, Linguagens de Simulação, Aspectos Estatísticos da Simulação de Sistemas, Validação de Modelos.</t>
   </si>
   <si>
     <t>Short syllabus:</t>
@@ -97,6 +100,9 @@
     <t>Programa:</t>
   </si>
   <si>
+    <t>1. Teoria dos Sistemas. 1.1. Conceitos Básicos sobre Teoria dos Sistemas;1.2. Abordagem Sistêmica; 1.3. Classificação dos Sistemas; 1.4. Ciclo de Vida dos Sistemas; 2. Processo de Modelagem de Sistemas. 2.1. Modelo Formal; 2.2. Modelo Computacional; 2.3. Teoria dos Modelos; 3. Modelagem para Simulação 3.1. Modelagem Discreta; 3.2. Modelagem Orientada a Eventos; 4. Linguagens de Simulação. 5. Aspectos Estatísticos da Simulação de Sistemas. 5.1. Geradores de Números Aleatórios; 5.2. Geração de Variáveis Aleatórias; 5.3. Inferência Estatística; 5.4. Problemas Estatísticos Relacionados com Simulação; 6. Validação de Modelos.</t>
+  </si>
+  <si>
     <t>Syllabus:</t>
   </si>
   <si>
@@ -109,22 +115,25 @@
     <t>Método:</t>
   </si>
   <si>
+    <t>NF=A avaliação será composta por provas, listas, projetos, seminários e outras formas que farão a composição das notas, sendo estipulada a média final a somatória destas notas (N), com no mínimo duas avaliações, sendo: (N1+...+Nn)/n.</t>
+  </si>
+  <si>
     <t>Critério:</t>
   </si>
   <si>
-    <t>NF=A avaliação será composta por provas, listas, projetos, seminários e outras formas que farão a composição das notas, sendo estipulada a média final a somatória destas notas (N), com no mínimo duas avaliações, sendo: (N1+...+Nn)/n.</t>
+    <t>NF≥ 5,0.</t>
   </si>
   <si>
     <t>Norma de recuperação:</t>
   </si>
   <si>
-    <t>NF≥ 5,0.</t>
+    <t>(NF+RC)/2 ≥ 5,0, onde RC é uma prova de recuperação a ser aplicada.</t>
   </si>
   <si>
     <t>Bibliografia:</t>
   </si>
   <si>
-    <t>(NF+RC)/2 ≥ 5,0, onde RC é uma prova de recuperação a ser aplicada.</t>
+    <t>1. BANKS, J., CARSON, J.S., “Discrete-Event System Simulation.”, Printice Hall, 2000.2. CHWIF, L., MEDINA, A.C. e col. “Introdução ao Simul8: um guia prático”, Livro Eletrônico, 1ª ed., 2015.3. Fishman, G.S. “Discrete-Event Simulation: Modeling, Programming, and Analysis”, Springer-Verlag, 2001.</t>
   </si>
   <si>
     <t>Requisitos:</t>
@@ -487,13 +496,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="30.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="30.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="60.7109375" style="2" customWidth="1"/>
     <col min="3" max="3" width="60.7109375" style="3" customWidth="1"/>
   </cols>
@@ -618,37 +627,34 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="60" customHeight="1">
-      <c r="A13" s="1" t="s">
+    <row r="13" spans="1:3">
+      <c r="B13" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>23</v>
-      </c>
       <c r="C13" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="60" customHeight="1">
       <c r="A14" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="C14" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="60" customHeight="1">
+      <c r="A15" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="120" customHeight="1">
-      <c r="A15" s="1" t="s">
+      <c r="B15" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>14</v>
-      </c>
       <c r="C15" s="3" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="120" customHeight="1">
@@ -662,66 +668,77 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" ht="120" customHeight="1">
       <c r="A17" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" ht="60" customHeight="1">
+      <c r="B17" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="60" customHeight="1">
       <c r="A19" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="60" customHeight="1">
       <c r="A20" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="120" customHeight="1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="60" customHeight="1">
       <c r="A21" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="120" customHeight="1">
       <c r="A22" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="30" customHeight="1">
-      <c r="B23" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C23" s="3" t="s">
-        <v>38</v>
+      <c r="B22" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="30" customHeight="1">
+      <c r="B24" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
